--- a/SalesAndInventorySystemApp/src/test/resources/Testdata.xlsx
+++ b/SalesAndInventorySystemApp/src/test/resources/Testdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>TC_ID</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Mokshith</t>
   </si>
   <si>
-    <t>narekodi_</t>
+    <t>kulal_</t>
   </si>
   <si>
     <t>98765</t>
@@ -79,13 +79,16 @@
     <t>create supplier</t>
   </si>
   <si>
+    <t>MVDm_</t>
+  </si>
+  <si>
     <t>Abra</t>
   </si>
   <si>
     <t>Bucay</t>
   </si>
   <si>
-    <t>98989</t>
+    <t>98988</t>
   </si>
   <si>
     <t>product code</t>
@@ -115,10 +118,10 @@
     <t>create product</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>logiteck wireless mouse_</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>apple wireless mouse_</t>
   </si>
   <si>
     <t>wireless mouse</t>
@@ -302,18 +305,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -640,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,16 +661,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -682,85 +679,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1319,7 +1316,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1410,7 +1407,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1443,16 +1440,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1464,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1484,28 +1481,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1513,31 +1510,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
